--- a/calibration/table3_axis_stats.xlsx
+++ b/calibration/table3_axis_stats.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0800E969-86F7-46B6-8D7E-DB05A3C7A11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9976CAB-FF52-4065-ADD2-8CC82D645891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14970" yWindow="7695" windowWidth="13245" windowHeight="7830" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,6 +453,56 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -525,8 +575,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -534,77 +587,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -612,6 +599,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,28 +963,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80" t="s">
+      <c r="D2" s="100"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="30" t="s">
@@ -1007,7 +1007,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="106" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1033,7 +1033,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1057,7 +1057,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="106" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1083,7 +1083,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
+      <c r="A7" s="106"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1107,7 +1107,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="106" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1133,7 +1133,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
+      <c r="A9" s="106"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1157,7 +1157,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="106" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1183,7 +1183,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
+      <c r="A11" s="106"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1229,40 +1229,40 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="74" t="s">
+      <c r="D13" s="94"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="75"/>
-      <c r="H13" s="76"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="98"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="85" t="s">
+      <c r="D16" s="108"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="86"/>
-      <c r="H16" s="87"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="109"/>
     </row>
     <row r="17" spans="1:16377" x14ac:dyDescent="0.25">
       <c r="C17" s="42" t="s">
@@ -1285,7 +1285,7 @@
       </c>
     </row>
     <row r="18" spans="1:16377" x14ac:dyDescent="0.25">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="106" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1321,7 +1321,7 @@
       <c r="T18" s="13"/>
     </row>
     <row r="19" spans="1:16377" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
@@ -1355,7 +1355,7 @@
       <c r="T19" s="13"/>
     </row>
     <row r="20" spans="1:16377" x14ac:dyDescent="0.25">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="106" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1391,7 +1391,7 @@
       <c r="T20" s="13"/>
     </row>
     <row r="21" spans="1:16377" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
+      <c r="A21" s="106"/>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
@@ -17782,7 +17782,7 @@
       <c r="XEW21" s="13"/>
     </row>
     <row r="22" spans="1:16377" x14ac:dyDescent="0.25">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="106" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -17818,7 +17818,7 @@
       <c r="T22" s="13"/>
     </row>
     <row r="23" spans="1:16377" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
+      <c r="A23" s="106"/>
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
@@ -17852,7 +17852,7 @@
       <c r="T23" s="13"/>
     </row>
     <row r="24" spans="1:16377" x14ac:dyDescent="0.25">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="106" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -34247,7 +34247,7 @@
       <c r="XEW24" s="13"/>
     </row>
     <row r="25" spans="1:16377" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
+      <c r="A25" s="106"/>
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
@@ -50661,16 +50661,16 @@
       </c>
     </row>
     <row r="27" spans="1:16377" x14ac:dyDescent="0.25">
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="68" t="s">
+      <c r="D27" s="91"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="69"/>
-      <c r="H27" s="70"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="92"/>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
@@ -50736,14 +50736,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="91"/>
-      <c r="E1" s="90" t="s">
+      <c r="D1" s="113"/>
+      <c r="E1" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="91"/>
+      <c r="F1" s="113"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" s="19" t="s">
@@ -50768,13 +50768,13 @@
       <c r="D3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="89"/>
+      <c r="F3" s="111"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="106" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -50794,7 +50794,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
@@ -50812,7 +50812,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="106" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -50832,7 +50832,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
+      <c r="A7" s="106"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -50850,7 +50850,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="106" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -50870,7 +50870,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
+      <c r="A9" s="106"/>
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
@@ -50888,7 +50888,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="106" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -50908,7 +50908,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
+      <c r="A11" s="106"/>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
@@ -50960,7 +50960,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50971,154 +50971,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="93" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="94"/>
-      <c r="E1" s="93" t="s">
+      <c r="D1" s="117"/>
+      <c r="E1" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="94"/>
+      <c r="F1" s="122"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="128"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="95" t="s">
+      <c r="A2" s="121"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="123" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="98"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="103"/>
+      <c r="F3" s="124"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="106">
+      <c r="C4" s="76">
         <f>Sheet2!C8</f>
         <v>9.6772087392492726E-2</v>
       </c>
-      <c r="D4" s="107">
+      <c r="D4" s="77">
         <f>Sheet2!D8</f>
         <v>0.22527172500666678</v>
       </c>
-      <c r="E4" s="108">
+      <c r="E4" s="125">
         <f>Sheet2!E8</f>
         <v>3.6756141433383848E-3</v>
       </c>
-      <c r="F4" s="109">
+      <c r="F4" s="126">
         <f>Sheet2!F8</f>
         <v>4.9798009236159948E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="111" t="s">
+      <c r="A5" s="119"/>
+      <c r="B5" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="106">
+      <c r="C5" s="76">
         <f>Sheet2!C9</f>
         <v>0.1763876411964744</v>
       </c>
-      <c r="D5" s="107">
+      <c r="D5" s="77">
         <f>Sheet2!D9</f>
         <v>0.36300861704293508</v>
       </c>
-      <c r="E5" s="108">
+      <c r="E5" s="125">
         <f>Sheet2!E9</f>
         <v>7.6668216899270052E-3</v>
       </c>
-      <c r="F5" s="109">
+      <c r="F5" s="126">
         <f>Sheet2!F9</f>
         <v>6.8786988999079519E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="114">
+      <c r="C6" s="80">
         <f>Sheet2!C10</f>
         <v>8.8737582728086156E-2</v>
       </c>
-      <c r="D6" s="115">
+      <c r="D6" s="81">
         <f>Sheet2!D10</f>
         <v>9.198194336590787E-2</v>
       </c>
-      <c r="E6" s="116">
+      <c r="E6" s="82">
         <f>Sheet2!E10</f>
         <v>3.158417785538983E-3</v>
       </c>
-      <c r="F6" s="117">
+      <c r="F6" s="127">
         <f>Sheet2!F10</f>
         <v>5.000703942745272E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="105" t="s">
+      <c r="A7" s="115"/>
+      <c r="B7" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="118">
+      <c r="C7" s="83">
         <f>Sheet2!C11</f>
         <v>0.15765168263939675</v>
       </c>
-      <c r="D7" s="119">
+      <c r="D7" s="84">
         <f>Sheet2!D11</f>
         <v>0.12861381276913428</v>
       </c>
-      <c r="E7" s="120">
+      <c r="E7" s="85">
         <f>Sheet2!E11</f>
         <v>3.6293943187893892E-3</v>
       </c>
-      <c r="F7" s="121">
+      <c r="F7" s="128">
         <f>Sheet2!F11</f>
         <v>8.7667913182914725E-3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="122"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="123" t="s">
+      <c r="A8" s="87"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="124" t="s">
+      <c r="D8" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="125" t="s">
+      <c r="E8" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="126" t="s">
+      <c r="F8" s="123" t="s">
         <v>19</v>
       </c>
     </row>
